--- a/medicine/Pharmacie/Molène_faux-phlomis/Molène_faux-phlomis.xlsx
+++ b/medicine/Pharmacie/Molène_faux-phlomis/Molène_faux-phlomis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_faux-phlomis</t>
+          <t>Molène_faux-phlomis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum phlomoides
 La molène faux Phlomis (Verbascum phlomoides), appelée aussi blanc de mai ou bouillon-blanc, est une plante de la famille des Scrophulariaceae, commune dans les champs incultes, sur les bords des routes, sur les décombres ensoleillés[Où ?].
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_faux-phlomis</t>
+          <t>Molène_faux-phlomis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractères généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bisannuelle à racine pivotante et à feuillage tomenteux.
 Rosette de grosses feuilles velues de couleur gris-vert d'où partent une ou plusieurs tiges dressées pouvant atteindre 1 à 2 mètres terminées par un épi terminal très long composé de nombreuses fleurs jaunes à divers stades (graines, fleurs et boutons à l'extrémité).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_faux-phlomis</t>
+          <t>Molène_faux-phlomis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Composants chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pigment jaune, sucres, acide thapsique, du mucilage, verbascosaponine, inosite, cires, traces d'huile essentielle.
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_faux-phlomis</t>
+          <t>Molène_faux-phlomis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Semis en place de mars à juin ou en pépinière avec mise en place des plants à l'automne. Sauvage, elle se récolte en été.
 Il est aussi possible de diviser les pieds en prélevant des éclats.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_faux-phlomis</t>
+          <t>Molène_faux-phlomis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parties utilisées : fleurs, mais aussi feuilles, graines.
 Propriétés : émolliente, anti-inflammatoire (hémorroïdes), antispasmodique.
